--- a/src/form_templates/template_58.xlsx
+++ b/src/form_templates/template_58.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance De Castro\Documents\GitHub\sIMS\excel test\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance De Castro\Documents\GitHub\sIMS\src\form_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31F1CD51-8411-47F0-8518-BF4BAED18C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D3AB5E-898B-430E-8C3F-66E83577366B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SC" sheetId="1" r:id="rId1"/>
@@ -94,6 +94,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -546,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -618,37 +621,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -674,6 +677,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,7 +1171,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G12"/>
+      <selection activeCell="E13" sqref="E13:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1271,7 +1283,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="37"/>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="25" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="42" t="s">
@@ -1290,278 +1302,278 @@
       <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="26" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="43"/>
     </row>
     <row r="13" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
     </row>
     <row r="33" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
     </row>
     <row r="35" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
     </row>
     <row r="36" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
     </row>
     <row r="40" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
     </row>
     <row r="41" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
     </row>
     <row r="42" spans="1:7" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="31"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
       <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
+      <c r="E42" s="46"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
     </row>

--- a/src/form_templates/template_58.xlsx
+++ b/src/form_templates/template_58.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance De Castro\Documents\GitHub\sIMS\src\form_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D3AB5E-898B-430E-8C3F-66E83577366B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029E8FAB-4F96-4A17-8C01-C89AC2F9BE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -549,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -627,24 +627,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -652,6 +634,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -678,13 +669,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1171,7 +1180,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E42"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1191,24 +1200,24 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1270,29 +1279,29 @@
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="37" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="9" t="s">
         <v>2</v>
       </c>
@@ -1305,277 +1314,277 @@
       <c r="F12" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="43"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="42"/>
     </row>
     <row r="15" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="42"/>
     </row>
     <row r="32" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="42"/>
     </row>
     <row r="33" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="42"/>
     </row>
     <row r="34" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="42"/>
     </row>
     <row r="35" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="42"/>
     </row>
     <row r="36" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="42"/>
     </row>
     <row r="37" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="42"/>
     </row>
     <row r="38" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="42"/>
     </row>
     <row r="39" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="42"/>
     </row>
     <row r="40" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="42"/>
     </row>
     <row r="41" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="42"/>
     </row>
     <row r="42" spans="1:7" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="43"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
